--- a/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,7 +52,7 @@
     <t>crude</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -61,18 +61,18 @@
     <t>forced</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -85,142 +85,148 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>the</t>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -586,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -697,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,16 +774,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,16 +824,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8">
         <v>0.9090909090909091</v>
@@ -947,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.9007832898172323</v>
+        <v>0.8851174934725848</v>
       </c>
       <c r="L9">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M9">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5686274509803921</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8962264150943396</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5661375661375662</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5155038759689923</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C12">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>266</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1147,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3758389261744967</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8846153846153846</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3728813559322034</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>36</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K14">
-        <v>0.8839285714285714</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,16 +1274,16 @@
         <v>36</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2933333333333333</v>
+        <v>0.32</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.8802816901408451</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.25</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.86875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,21 +1395,45 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.0992063492063492</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>227</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8515625</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,21 +1445,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.01138760016870519</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>0.23</v>
+      </c>
+      <c r="F19">
+        <v>0.77</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2344</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.851063829787234</v>
+        <v>0.83125</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1441,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1467,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1493,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1519,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.82</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1545,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1571,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1597,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1623,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1649,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K28">
-        <v>0.7428571428571429</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1675,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>0.7411764705882353</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L29">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1701,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>88</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>0.7238493723849372</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L30">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="M30">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1727,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1753,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32">
-        <v>0.7076923076923077</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1779,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33">
-        <v>0.7050847457627119</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L33">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1805,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>0.7037037037037037</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1831,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>0.6808510638297872</v>
+        <v>0.6972789115646258</v>
       </c>
       <c r="L35">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="M35">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1854,24 +1908,24 @@
         <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K36">
-        <v>0.6714285714285714</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1883,21 +1937,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K37">
-        <v>0.6666666666666666</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1909,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>0.65</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1935,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>0.5955056179775281</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L39">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1961,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1987,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K41">
-        <v>0.5256410256410257</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2018,16 +2072,16 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K42">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2039,21 +2093,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.4901960784313725</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2065,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K44">
-        <v>0.410958904109589</v>
+        <v>0.3125</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2091,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K45">
-        <v>0.34375</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2117,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K46">
-        <v>0.02003338898163606</v>
+        <v>0.02840434419381788</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>0.92</v>
@@ -2143,33 +2197,33 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1174</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K47">
-        <v>0.004075295944110227</v>
+        <v>0.005568445475638051</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N47">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="O47">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>5132</v>
+        <v>4286</v>
       </c>
     </row>
   </sheetData>
